--- a/ja/shoshiki_A.xlsx
+++ b/ja/shoshiki_A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21345" windowHeight="13710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21345" windowHeight="13710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="受講申込書" sheetId="5" r:id="rId1"/>
@@ -50,9 +50,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>【申込区分】
-該当する方を残してください。
-遠隔受講を申し込まれる方は、事前に御社内トップエスイーご担当者様もしくはトップエスイープロジェクト事務局までご相談ください。</t>
+          <t>【申込区分】該当する方を残してください。</t>
         </r>
       </text>
     </comment>
@@ -1842,6 +1840,213 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1878,16 +2083,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1896,9 +2092,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1908,12 +2101,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1926,9 +2113,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1965,191 +2149,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2173,81 +2246,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2648,7 +2646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -2664,13 +2662,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
@@ -2678,10 +2676,10 @@
       <c r="C2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="105"/>
       <c r="G2" s="15" t="s">
         <v>36</v>
       </c>
@@ -2690,16 +2688,16 @@
       <c r="A3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="119" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="24" t="s">
@@ -2708,348 +2706,351 @@
       <c r="C4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="56"/>
+      <c r="E4" s="118"/>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="71" t="s">
+      <c r="A5" s="120"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="74"/>
+      <c r="E5" s="68"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="75"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="117"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="37"/>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
-      <c r="B10" s="47" t="s">
+      <c r="A10" s="110"/>
+      <c r="B10" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="37"/>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
-      <c r="B11" s="62" t="s">
+      <c r="A11" s="92"/>
+      <c r="B11" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="64"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="126"/>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="129"/>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="68" t="s">
+      <c r="A13" s="111"/>
+      <c r="B13" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="94"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="98"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="61"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="86"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="101"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="98"/>
     </row>
     <row r="20" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="50"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
     </row>
     <row r="21" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="125" t="s">
+      <c r="A21" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="128" t="s">
+      <c r="B21" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="129"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="126"/>
-      <c r="B22" s="128" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="129"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:9" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="127"/>
-      <c r="B23" s="90" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="92"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="87"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="83"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="77"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="87"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="89"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="84"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="105"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="107"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="111" t="s">
+      <c r="A28" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="113"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
     </row>
     <row r="29" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="114"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
     </row>
     <row r="30" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="123"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="58"/>
     </row>
     <row r="31" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="96"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="98"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="61"/>
     </row>
     <row r="32" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="78"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="73"/>
     </row>
     <row r="33" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="101"/>
     </row>
     <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="104" t="s">
+      <c r="A34" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="50"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="37"/>
     </row>
     <row r="35" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="108"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="110"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
     </row>
     <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="115"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="117"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="52"/>
     </row>
     <row r="37" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="118"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="120"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="55"/>
     </row>
     <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="102" t="s">
+      <c r="A38" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
       <c r="F38" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:E6"/>
@@ -3066,22 +3067,19 @@
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.86614173228346458" right="0.35433070866141736" top="0.98425196850393704" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3093,8 +3091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3108,13 +3106,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
@@ -3122,24 +3120,24 @@
       <c r="C2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="105"/>
     </row>
     <row r="3" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="130" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -3148,357 +3146,340 @@
       <c r="C4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="56"/>
+      <c r="E4" s="118"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="161"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="71" t="s">
+      <c r="A5" s="131"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="74"/>
+      <c r="E5" s="68"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="162"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="75"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="117"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="37"/>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
-      <c r="B10" s="47" t="s">
+      <c r="A10" s="110"/>
+      <c r="B10" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="37"/>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
-      <c r="B11" s="62" t="s">
+      <c r="A11" s="92"/>
+      <c r="B11" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="64"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="126"/>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="157"/>
-      <c r="C12" s="158"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="159"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="135"/>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="138" t="s">
+      <c r="A13" s="111"/>
+      <c r="B13" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="94"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="98"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="61"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="86"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="101"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
-      <c r="B19" s="142"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="144"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="142"/>
     </row>
     <row r="20" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="139"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="141"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="139"/>
     </row>
     <row r="21" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="125" t="s">
+      <c r="A21" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="128" t="s">
+      <c r="B21" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="129"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="126"/>
-      <c r="B22" s="128" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="129"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:9" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="127"/>
-      <c r="B23" s="90" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="92"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="87"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="83"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="77"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="87"/>
-      <c r="C26" s="150"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="151"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="149"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="105"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="146"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="144"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="111" t="s">
+      <c r="A28" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="113"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
     </row>
     <row r="29" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="147"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="149"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="147"/>
     </row>
     <row r="30" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="154"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="156"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="154"/>
     </row>
     <row r="31" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="96"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="153"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="151"/>
     </row>
     <row r="32" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="78"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="73"/>
     </row>
     <row r="33" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="101"/>
     </row>
     <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="104" t="s">
+      <c r="A34" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="50"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="37"/>
     </row>
     <row r="35" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="133"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="135"/>
+      <c r="B35" s="158"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="160"/>
     </row>
     <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="115"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="137"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="161"/>
+      <c r="D36" s="161"/>
+      <c r="E36" s="162"/>
     </row>
     <row r="37" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="130"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="132"/>
+      <c r="B37" s="155"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="157"/>
     </row>
     <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="102" t="s">
+      <c r="A38" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
       <c r="F38" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B20:E20"/>
@@ -3515,12 +3496,29 @@
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.86614173228346458" right="0.35433070866141736" top="0.98425196850393704" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
